--- a/Requirements.xlsx
+++ b/Requirements.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\UNI\МАГ\Сем2\RAsi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\UNI\МАГ\Сем2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="5925"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>ID</t>
   </si>
@@ -44,66 +44,9 @@
     <t>accepted</t>
   </si>
   <si>
-    <t xml:space="preserve">Устройството трябва да усигурява възможно ръчно влючване/изключване на система </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Устройството трябва да визуализира текущата температура </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Визуализацията трябва да изобразява  в горния ляв ъгъл </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дисплея трябва да е 16X4  LCD   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Устройството притежава Реле1- управлява нагреватяля в системата </t>
-  </si>
-  <si>
-    <t>Устройството притежава Реле2 - управлява охладането в системата</t>
-  </si>
-  <si>
-    <t xml:space="preserve">При стойност в рамките на  +25.0 до +29.0 целзеви градуса устройството трябва да е в режим на изчакване </t>
-  </si>
-  <si>
-    <t>Устройството има активиран светлинен индикатор ,когато е в работен режим</t>
-  </si>
-  <si>
-    <t xml:space="preserve">На втория ред изобразява температурата при която Реле1 спира </t>
-  </si>
-  <si>
-    <t xml:space="preserve">На третия ред изобразява температурата при която се стартира Реле2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">При неизправност в температурания сензор на дисплея да се визуализира съобщение "ERROR" в горния ляв ъгъл </t>
-  </si>
-  <si>
-    <t>Софтуерно трябва да се определя температурата на охлажнане/затопляне</t>
-  </si>
-  <si>
-    <t>Температураза за активиране на Реле2  трябва да е точно +29.0 целзеви градуса</t>
-  </si>
-  <si>
-    <t>Температураза при която Реле1  спира работа трябва да е точно +25.0 целзеви градуса</t>
-  </si>
-  <si>
     <t xml:space="preserve">При стартиранете на Реле1 трябва  се активира светлинен индикатор </t>
   </si>
   <si>
-    <t xml:space="preserve">Дисплея притежава потенциометър за промяна на  яркостта </t>
-  </si>
-  <si>
-    <t>Температурния сензор работно напрежение 3.0 V</t>
-  </si>
-  <si>
-    <t>Вентилатора работно напрежение 5.0V 3000 RPM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Точноста  на показанията трябва да е със знак(±) и  с точност  до  0.1 от целзевия градус </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Измервателната температура на сензора е от -55⁰C  до  +125⁰ C </t>
-  </si>
-  <si>
     <t xml:space="preserve">11 на брой пина за комуникация между дисплея и процесора </t>
   </si>
   <si>
@@ -119,15 +62,9 @@
     <t xml:space="preserve">1 пин за заземяване </t>
   </si>
   <si>
-    <t>Захранващо напрежение на устройството от 2V - 5V</t>
-  </si>
-  <si>
     <t>R.6.1.</t>
   </si>
   <si>
-    <t>R.7.0</t>
-  </si>
-  <si>
     <t>R.1.0.</t>
   </si>
   <si>
@@ -164,9 +101,6 @@
     <t>R.7.6.</t>
   </si>
   <si>
-    <t>R.7.7</t>
-  </si>
-  <si>
     <t>R.8.0</t>
   </si>
   <si>
@@ -198,6 +132,102 @@
   </si>
   <si>
     <t>S.1.0.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Устройството трябва да осигурява възможност за ръчно влючване/изключване на система </t>
+  </si>
+  <si>
+    <t>Устройството съдържа Реле2 - управлява охладането в системата</t>
+  </si>
+  <si>
+    <t>Устройството има активиран светлинен индикатор, когато е в работен режим</t>
+  </si>
+  <si>
+    <t>Работно напрежение на вентилатора - 5.0V</t>
+  </si>
+  <si>
+    <t>Температурният сензор е с работно напрежение 5.0 V</t>
+  </si>
+  <si>
+    <t>На дисплея трябва да се визуализира текущата температура</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCD Дисплея трябва да е с размери 16 колони и 4 реда   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Текущата температура трябва да се изписва  в горния ляв ъгъл </t>
+  </si>
+  <si>
+    <t>Минималната температура трябва да се изписва  на втори ред</t>
+  </si>
+  <si>
+    <t>Максималната температура трябва да се изписва  на трети ред</t>
+  </si>
+  <si>
+    <t>Яркостта на дисплея да се контролира с потенциометър</t>
+  </si>
+  <si>
+    <t xml:space="preserve">При неизправност в температурания сензор на дисплея да се изписва съобщение "ERROR" в горния ляв ъгъл </t>
+  </si>
+  <si>
+    <t>Софтуерно трябва да се задава температурата на охлаждане/затопляне</t>
+  </si>
+  <si>
+    <t>1 пин за захранване</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 пин за ресет </t>
+  </si>
+  <si>
+    <t>1 пин за температурния датчик</t>
+  </si>
+  <si>
+    <t>Захранващо напрежение на устройството 5V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Устройството съдържа Реле1 - управлява нагреваталя в системата </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Температурният диапазон на сензора е от -55 ⁰C  до  +125 ⁰C </t>
+  </si>
+  <si>
+    <t>Устройството съдържа температурен сензон</t>
+  </si>
+  <si>
+    <t>Усторойството съдържа LCD Дисплей</t>
+  </si>
+  <si>
+    <t>R.6.2.</t>
+  </si>
+  <si>
+    <t>R.7.0.</t>
+  </si>
+  <si>
+    <t>R.7.7.</t>
+  </si>
+  <si>
+    <t>R.7.8.</t>
+  </si>
+  <si>
+    <t>Точноста  на показанията трябва да е със знак(±) и  с точност  до  0.1  ⁰C</t>
+  </si>
+  <si>
+    <t>Температурата за активиране на Реле2  трябва да е над  +29.0  ⁰С</t>
+  </si>
+  <si>
+    <t>Температурата за активиране на Реле1  трябва да е под  +25.0 ⁰С</t>
+  </si>
+  <si>
+    <t xml:space="preserve">При стойност в рамките от  +25.0 до +29.0 ⁰С устройството трябва да е в режим на изчакване </t>
+  </si>
+  <si>
+    <t>R.13.6.</t>
+  </si>
+  <si>
+    <t>R.13.7.</t>
+  </si>
+  <si>
+    <t>R.13.8.</t>
   </si>
 </sst>
 </file>
@@ -534,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,211 +600,252 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="2"/>
+        <v>40</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
         <v>43</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
         <v>44</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
         <v>45</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
         <v>46</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" t="s">
         <v>47</v>
-      </c>
-      <c r="B18" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" t="s">
-        <v>31</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Requirements.xlsx
+++ b/Requirements.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>ID</t>
   </si>
@@ -228,6 +228,24 @@
   </si>
   <si>
     <t>R.13.8.</t>
+  </si>
+  <si>
+    <t>Работно напрежение на процесора - 5.0V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Процесора притежава 20 пина </t>
+  </si>
+  <si>
+    <t>R.14.0</t>
+  </si>
+  <si>
+    <t>R.14.1.</t>
+  </si>
+  <si>
+    <t>R.14.2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Устройството съдържа процесор - обработва данни  в системата </t>
   </si>
 </sst>
 </file>
@@ -564,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,11 +858,35 @@
         <v>51</v>
       </c>
     </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" t="s">
+        <v>68</v>
+      </c>
+    </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>35</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B38" t="s">
         <v>52</v>
       </c>
     </row>
